--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cthrc1-Fzd6.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cthrc1-Fzd6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Fzd6</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>27.5226568623698</v>
+        <v>0.9744206666666667</v>
       </c>
       <c r="H2">
-        <v>27.5226568623698</v>
+        <v>2.923262</v>
       </c>
       <c r="I2">
-        <v>0.9709352128748133</v>
+        <v>0.0323957296480766</v>
       </c>
       <c r="J2">
-        <v>0.9709352128748133</v>
+        <v>0.03239572964807661</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.1148605612457</v>
+        <v>13.877148</v>
       </c>
       <c r="N2">
-        <v>11.1148605612457</v>
+        <v>41.631444</v>
       </c>
       <c r="O2">
-        <v>0.9836137494541555</v>
+        <v>0.9551716529386821</v>
       </c>
       <c r="P2">
-        <v>0.9836137494541555</v>
+        <v>0.9551716529386822</v>
       </c>
       <c r="Q2">
-        <v>305.9104933002524</v>
+        <v>13.522179805592</v>
       </c>
       <c r="R2">
-        <v>305.9104933002524</v>
+        <v>121.699618250328</v>
       </c>
       <c r="S2">
-        <v>0.9550252252128637</v>
+        <v>0.030943482636108</v>
       </c>
       <c r="T2">
-        <v>0.9550252252128637</v>
+        <v>0.03094348263610801</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +581,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>27.5226568623698</v>
+        <v>0.9744206666666667</v>
       </c>
       <c r="H3">
-        <v>27.5226568623698</v>
+        <v>2.923262</v>
       </c>
       <c r="I3">
-        <v>0.9709352128748133</v>
+        <v>0.0323957296480766</v>
       </c>
       <c r="J3">
-        <v>0.9709352128748133</v>
+        <v>0.03239572964807661</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.185165050854332</v>
+        <v>0.4259926666666667</v>
       </c>
       <c r="N3">
-        <v>0.185165050854332</v>
+        <v>1.277978</v>
       </c>
       <c r="O3">
-        <v>0.01638625054584459</v>
+        <v>0.02932130719941569</v>
       </c>
       <c r="P3">
-        <v>0.01638625054584459</v>
+        <v>0.02932130719941569</v>
       </c>
       <c r="Q3">
-        <v>5.096234157567033</v>
+        <v>0.4150960582484445</v>
       </c>
       <c r="R3">
-        <v>5.096234157567033</v>
+        <v>3.735864524236001</v>
       </c>
       <c r="S3">
-        <v>0.01590998766194964</v>
+        <v>0.0009498851409604728</v>
       </c>
       <c r="T3">
-        <v>0.01590998766194964</v>
+        <v>0.0009498851409604731</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.823886241035398</v>
+        <v>0.9744206666666667</v>
       </c>
       <c r="H4">
-        <v>0.823886241035398</v>
+        <v>2.923262</v>
       </c>
       <c r="I4">
-        <v>0.02906478712518658</v>
+        <v>0.0323957296480766</v>
       </c>
       <c r="J4">
-        <v>0.02906478712518658</v>
+        <v>0.03239572964807661</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.1148605612457</v>
+        <v>0.225293</v>
       </c>
       <c r="N4">
-        <v>11.1148605612457</v>
+        <v>0.675879</v>
       </c>
       <c r="O4">
-        <v>0.9836137494541555</v>
+        <v>0.01550703986190206</v>
       </c>
       <c r="P4">
-        <v>0.9836137494541555</v>
+        <v>0.01550703986190207</v>
       </c>
       <c r="Q4">
-        <v>9.157380687437314</v>
+        <v>0.2195301552553333</v>
       </c>
       <c r="R4">
-        <v>9.157380687437314</v>
+        <v>1.975771397298</v>
       </c>
       <c r="S4">
-        <v>0.02858852424129164</v>
+        <v>0.0005023618710081264</v>
       </c>
       <c r="T4">
-        <v>0.02858852424129164</v>
+        <v>0.0005023618710081266</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>28.021538</v>
+      </c>
+      <c r="H5">
+        <v>84.06461399999999</v>
+      </c>
+      <c r="I5">
+        <v>0.9316080830640275</v>
+      </c>
+      <c r="J5">
+        <v>0.9316080830640276</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>13.877148</v>
+      </c>
+      <c r="N5">
+        <v>41.631444</v>
+      </c>
+      <c r="O5">
+        <v>0.9551716529386821</v>
+      </c>
+      <c r="P5">
+        <v>0.9551716529386822</v>
+      </c>
+      <c r="Q5">
+        <v>388.859030013624</v>
+      </c>
+      <c r="R5">
+        <v>3499.731270122616</v>
+      </c>
+      <c r="S5">
+        <v>0.8898456325913042</v>
+      </c>
+      <c r="T5">
+        <v>0.8898456325913044</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>28.021538</v>
+      </c>
+      <c r="H6">
+        <v>84.06461399999999</v>
+      </c>
+      <c r="I6">
+        <v>0.9316080830640275</v>
+      </c>
+      <c r="J6">
+        <v>0.9316080830640276</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.4259926666666667</v>
+      </c>
+      <c r="N6">
+        <v>1.277978</v>
+      </c>
+      <c r="O6">
+        <v>0.02932130719941569</v>
+      </c>
+      <c r="P6">
+        <v>0.02932130719941569</v>
+      </c>
+      <c r="Q6">
+        <v>11.93696969672133</v>
+      </c>
+      <c r="R6">
+        <v>107.432727270492</v>
+      </c>
+      <c r="S6">
+        <v>0.02731596679297912</v>
+      </c>
+      <c r="T6">
+        <v>0.02731596679297913</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>28.021538</v>
+      </c>
+      <c r="H7">
+        <v>84.06461399999999</v>
+      </c>
+      <c r="I7">
+        <v>0.9316080830640275</v>
+      </c>
+      <c r="J7">
+        <v>0.9316080830640276</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.225293</v>
+      </c>
+      <c r="N7">
+        <v>0.675879</v>
+      </c>
+      <c r="O7">
+        <v>0.01550703986190206</v>
+      </c>
+      <c r="P7">
+        <v>0.01550703986190207</v>
+      </c>
+      <c r="Q7">
+        <v>6.313056360633999</v>
+      </c>
+      <c r="R7">
+        <v>56.817507245706</v>
+      </c>
+      <c r="S7">
+        <v>0.01444648367974404</v>
+      </c>
+      <c r="T7">
+        <v>0.01444648367974405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.082717666666667</v>
+      </c>
+      <c r="H8">
+        <v>3.248153</v>
+      </c>
+      <c r="I8">
+        <v>0.03599618728789584</v>
+      </c>
+      <c r="J8">
+        <v>0.03599618728789584</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>13.877148</v>
+      </c>
+      <c r="N8">
+        <v>41.631444</v>
+      </c>
+      <c r="O8">
+        <v>0.9551716529386821</v>
+      </c>
+      <c r="P8">
+        <v>0.9551716529386822</v>
+      </c>
+      <c r="Q8">
+        <v>15.025033302548</v>
+      </c>
+      <c r="R8">
+        <v>135.225299722932</v>
+      </c>
+      <c r="S8">
+        <v>0.03438253771126985</v>
+      </c>
+      <c r="T8">
+        <v>0.03438253771126985</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.823886241035398</v>
-      </c>
-      <c r="H5">
-        <v>0.823886241035398</v>
-      </c>
-      <c r="I5">
-        <v>0.02906478712518658</v>
-      </c>
-      <c r="J5">
-        <v>0.02906478712518658</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.185165050854332</v>
-      </c>
-      <c r="N5">
-        <v>0.185165050854332</v>
-      </c>
-      <c r="O5">
-        <v>0.01638625054584459</v>
-      </c>
-      <c r="P5">
-        <v>0.01638625054584459</v>
-      </c>
-      <c r="Q5">
-        <v>0.1525549377195039</v>
-      </c>
-      <c r="R5">
-        <v>0.1525549377195039</v>
-      </c>
-      <c r="S5">
-        <v>0.0004762628838949455</v>
-      </c>
-      <c r="T5">
-        <v>0.0004762628838949455</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.082717666666667</v>
+      </c>
+      <c r="H9">
+        <v>3.248153</v>
+      </c>
+      <c r="I9">
+        <v>0.03599618728789584</v>
+      </c>
+      <c r="J9">
+        <v>0.03599618728789584</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.4259926666666667</v>
+      </c>
+      <c r="N9">
+        <v>1.277978</v>
+      </c>
+      <c r="O9">
+        <v>0.02932130719941569</v>
+      </c>
+      <c r="P9">
+        <v>0.02932130719941569</v>
+      </c>
+      <c r="Q9">
+        <v>0.4612297860704445</v>
+      </c>
+      <c r="R9">
+        <v>4.151068074634</v>
+      </c>
+      <c r="S9">
+        <v>0.001055455265476096</v>
+      </c>
+      <c r="T9">
+        <v>0.001055455265476096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.082717666666667</v>
+      </c>
+      <c r="H10">
+        <v>3.248153</v>
+      </c>
+      <c r="I10">
+        <v>0.03599618728789584</v>
+      </c>
+      <c r="J10">
+        <v>0.03599618728789584</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.225293</v>
+      </c>
+      <c r="N10">
+        <v>0.675879</v>
+      </c>
+      <c r="O10">
+        <v>0.01550703986190206</v>
+      </c>
+      <c r="P10">
+        <v>0.01550703986190207</v>
+      </c>
+      <c r="Q10">
+        <v>0.2439287112763333</v>
+      </c>
+      <c r="R10">
+        <v>2.195358401487</v>
+      </c>
+      <c r="S10">
+        <v>0.0005581943111498931</v>
+      </c>
+      <c r="T10">
+        <v>0.0005581943111498932</v>
       </c>
     </row>
   </sheetData>
